--- a/外部設計書_トップページ.xlsx
+++ b/外部設計書_トップページ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FB103E-BE8A-4249-99C0-4D96721CBFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A14049-4FCD-4507-8C30-54AEED414EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -209,10 +209,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>[4]タグをクリックすると、</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>検索項目が未入力の場合どのような処理をするかどうか</t>
     <rPh sb="0" eb="2">
       <t>ケンサク</t>
@@ -245,6 +241,107 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[4]タグをクリックして選択する。</t>
+    <rPh sb="12" eb="14">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タグは選択しなくてもよい。また、いくつでも選択可能。</t>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[5]キーワードを自由入力できる</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>あいまい検索ができる</t>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>複数のタグが選択された場合、いずれかに該当する質問が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>キーワードを未入力でも検索可能</t>
+    <rPh sb="6" eb="9">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[6]検索ボタンをクリックすると検索結果一覧ページに遷移する</t>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タグとキーワードどちらも入力していない場合、アラートを表示し、検索することができない。</t>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケンサク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -773,15 +870,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
+      <xdr:colOff>202407</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:rowOff>154782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
+      <xdr:colOff>83343</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -796,7 +893,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="964407" y="1476376"/>
+          <a:off x="1023938" y="1488282"/>
           <a:ext cx="9465468" cy="5131593"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1306,16 +1403,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>178595</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:rowOff>130970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>226219</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>83345</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1330,7 +1427,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4702969" y="2976563"/>
+          <a:off x="6477001" y="2988470"/>
           <a:ext cx="452438" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1367,15 +1464,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>59530</xdr:colOff>
+      <xdr:colOff>166686</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:rowOff>83344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>71436</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1390,7 +1487,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5536405" y="2976563"/>
+          <a:off x="5643561" y="2940844"/>
           <a:ext cx="452438" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1426,16 +1523,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>178594</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1450,7 +1547,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6310313" y="2976562"/>
+          <a:off x="5655469" y="3440906"/>
           <a:ext cx="452438" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1546,16 +1643,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>83343</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>35717</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1570,7 +1667,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4738687" y="3405187"/>
+          <a:off x="6417468" y="3452811"/>
           <a:ext cx="452438" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1666,16 +1763,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>83343</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>261936</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1690,7 +1787,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5560218" y="3381375"/>
+          <a:off x="6012655" y="3857625"/>
           <a:ext cx="452438" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1726,16 +1823,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:rowOff>178593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>202406</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1750,7 +1847,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6322218" y="3369469"/>
+          <a:off x="4845843" y="3417093"/>
           <a:ext cx="452438" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1846,16 +1943,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>261939</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>130970</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>166690</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>35721</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>130967</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1870,7 +1967,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6012658" y="3845718"/>
+          <a:off x="4786314" y="2976561"/>
           <a:ext cx="452438" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2689,10 +2786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP109"/>
+  <dimension ref="A1:AP110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AP33" sqref="AP33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AB53" sqref="AB53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3855,7 +3952,7 @@
       <c r="AM28" s="7"/>
       <c r="AN28" s="7"/>
       <c r="AP28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3900,7 +3997,7 @@
       <c r="AM29" s="7"/>
       <c r="AN29" s="7"/>
       <c r="AP29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3945,7 +4042,7 @@
       <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
       <c r="AP30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4549,7 +4646,7 @@
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
@@ -4593,7 +4690,9 @@
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
+      <c r="G46" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -4635,7 +4734,9 @@
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
+      <c r="G47" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -4673,10 +4774,12 @@
     <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
       <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
+      <c r="F48" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -4719,7 +4822,9 @@
       <c r="D49" s="10"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
+      <c r="G49" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -4761,7 +4866,9 @@
       <c r="D50" s="10"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
+      <c r="G50" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -4802,7 +4909,9 @@
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
+      <c r="F51" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
@@ -4845,7 +4954,9 @@
       <c r="D52" s="10"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
+      <c r="G52" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -4894,11 +5005,11 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
       <c r="S53" s="9"/>
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
@@ -5020,11 +5131,11 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
@@ -5681,8 +5792,8 @@
     <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
@@ -5722,49 +5833,49 @@
     </row>
     <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="12"/>
-      <c r="Q73" s="12"/>
-      <c r="R73" s="12"/>
-      <c r="S73" s="12"/>
-      <c r="T73" s="12"/>
-      <c r="U73" s="12"/>
-      <c r="V73" s="12"/>
-      <c r="W73" s="12"/>
-      <c r="X73" s="12"/>
-      <c r="Y73" s="12"/>
-      <c r="Z73" s="12"/>
-      <c r="AA73" s="12"/>
-      <c r="AB73" s="12"/>
-      <c r="AC73" s="12"/>
-      <c r="AD73" s="12"/>
-      <c r="AE73" s="12"/>
-      <c r="AF73" s="12"/>
-      <c r="AG73" s="12"/>
-      <c r="AH73" s="12"/>
-      <c r="AI73" s="12"/>
-      <c r="AJ73" s="12"/>
-      <c r="AK73" s="12"/>
-      <c r="AL73" s="12"/>
-      <c r="AM73" s="13"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="9"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="9"/>
+      <c r="Y73" s="9"/>
+      <c r="Z73" s="9"/>
+      <c r="AA73" s="9"/>
+      <c r="AB73" s="9"/>
+      <c r="AC73" s="9"/>
+      <c r="AD73" s="9"/>
+      <c r="AE73" s="9"/>
+      <c r="AF73" s="9"/>
+      <c r="AG73" s="9"/>
+      <c r="AH73" s="9"/>
+      <c r="AI73" s="9"/>
+      <c r="AJ73" s="9"/>
+      <c r="AK73" s="9"/>
+      <c r="AL73" s="9"/>
+      <c r="AM73" s="7"/>
       <c r="AN73" s="7"/>
     </row>
     <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="11"/>
-      <c r="B74" s="12"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="11"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
@@ -5801,56 +5912,54 @@
       <c r="AJ74" s="12"/>
       <c r="AK74" s="12"/>
       <c r="AL74" s="12"/>
-      <c r="AM74" s="12"/>
-      <c r="AN74" s="13"/>
+      <c r="AM74" s="13"/>
+      <c r="AN74" s="7"/>
     </row>
     <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="3"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
-      <c r="T75" s="4"/>
-      <c r="U75" s="4"/>
-      <c r="V75" s="4"/>
-      <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
-      <c r="Y75" s="4"/>
-      <c r="Z75" s="4"/>
-      <c r="AA75" s="4"/>
-      <c r="AB75" s="4"/>
-      <c r="AC75" s="4"/>
-      <c r="AD75" s="4"/>
-      <c r="AE75" s="4"/>
-      <c r="AF75" s="4"/>
-      <c r="AG75" s="4"/>
-      <c r="AH75" s="4"/>
-      <c r="AI75" s="4"/>
-      <c r="AJ75" s="4"/>
-      <c r="AK75" s="4"/>
-      <c r="AL75" s="4"/>
-      <c r="AM75" s="4"/>
-      <c r="AN75" s="5"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12"/>
+      <c r="S75" s="12"/>
+      <c r="T75" s="12"/>
+      <c r="U75" s="12"/>
+      <c r="V75" s="12"/>
+      <c r="W75" s="12"/>
+      <c r="X75" s="12"/>
+      <c r="Y75" s="12"/>
+      <c r="Z75" s="12"/>
+      <c r="AA75" s="12"/>
+      <c r="AB75" s="12"/>
+      <c r="AC75" s="12"/>
+      <c r="AD75" s="12"/>
+      <c r="AE75" s="12"/>
+      <c r="AF75" s="12"/>
+      <c r="AG75" s="12"/>
+      <c r="AH75" s="12"/>
+      <c r="AI75" s="12"/>
+      <c r="AJ75" s="12"/>
+      <c r="AK75" s="12"/>
+      <c r="AL75" s="12"/>
+      <c r="AM75" s="12"/>
+      <c r="AN75" s="13"/>
     </row>
     <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="6"/>
-      <c r="B76" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A76" s="3"/>
+      <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -5887,144 +5996,146 @@
       <c r="AJ76" s="4"/>
       <c r="AK76" s="4"/>
       <c r="AL76" s="4"/>
-      <c r="AM76" s="5"/>
-      <c r="AN76" s="7"/>
+      <c r="AM76" s="4"/>
+      <c r="AN76" s="5"/>
     </row>
     <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
-      <c r="U77" s="8"/>
-      <c r="V77" s="8"/>
-      <c r="W77" s="8"/>
-      <c r="X77" s="8"/>
-      <c r="Y77" s="8"/>
-      <c r="Z77" s="8"/>
-      <c r="AA77" s="8"/>
-      <c r="AB77" s="8"/>
-      <c r="AC77" s="8"/>
-      <c r="AD77" s="8"/>
-      <c r="AE77" s="8"/>
-      <c r="AF77" s="8"/>
-      <c r="AG77" s="8"/>
-      <c r="AH77" s="8"/>
-      <c r="AI77" s="8"/>
-      <c r="AJ77" s="8"/>
-      <c r="AK77" s="8"/>
-      <c r="AL77" s="8"/>
-      <c r="AM77" s="7"/>
+      <c r="B77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="4"/>
+      <c r="AB77" s="4"/>
+      <c r="AC77" s="4"/>
+      <c r="AD77" s="4"/>
+      <c r="AE77" s="4"/>
+      <c r="AF77" s="4"/>
+      <c r="AG77" s="4"/>
+      <c r="AH77" s="4"/>
+      <c r="AI77" s="4"/>
+      <c r="AJ77" s="4"/>
+      <c r="AK77" s="4"/>
+      <c r="AL77" s="4"/>
+      <c r="AM77" s="5"/>
       <c r="AN77" s="7"/>
     </row>
     <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="6"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="8"/>
+      <c r="X78" s="8"/>
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="8"/>
+      <c r="AA78" s="8"/>
+      <c r="AB78" s="8"/>
+      <c r="AC78" s="8"/>
+      <c r="AD78" s="8"/>
+      <c r="AE78" s="8"/>
+      <c r="AF78" s="8"/>
+      <c r="AG78" s="8"/>
+      <c r="AH78" s="8"/>
+      <c r="AI78" s="8"/>
+      <c r="AJ78" s="8"/>
+      <c r="AK78" s="8"/>
+      <c r="AL78" s="8"/>
+      <c r="AM78" s="7"/>
+      <c r="AN78" s="7"/>
+    </row>
+    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="6"/>
+      <c r="B79" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="16" t="s">
+      <c r="C79" s="15"/>
+      <c r="D79" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="18"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M78" s="17"/>
-      <c r="N78" s="19"/>
-      <c r="O78" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
-      <c r="R78" s="19"/>
-      <c r="S78" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="T78" s="19"/>
-      <c r="U78" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="V78" s="19"/>
-      <c r="W78" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="X78" s="17"/>
-      <c r="Y78" s="17"/>
-      <c r="Z78" s="19"/>
-      <c r="AA78" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB78" s="17"/>
-      <c r="AC78" s="19"/>
-      <c r="AD78" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE78" s="17"/>
-      <c r="AF78" s="17"/>
-      <c r="AG78" s="17"/>
-      <c r="AH78" s="17"/>
-      <c r="AI78" s="17"/>
-      <c r="AJ78" s="17"/>
-      <c r="AK78" s="17"/>
-      <c r="AL78" s="17"/>
-      <c r="AM78" s="20"/>
-      <c r="AN78" s="7"/>
-    </row>
-    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="6"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="16"/>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
-      <c r="H79" s="16"/>
+      <c r="H79" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
-      <c r="L79" s="16"/>
+      <c r="L79" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
-      <c r="O79" s="16"/>
+      <c r="O79" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
       <c r="R79" s="19"/>
-      <c r="S79" s="16"/>
+      <c r="S79" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="T79" s="19"/>
-      <c r="U79" s="16"/>
+      <c r="U79" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="V79" s="19"/>
-      <c r="W79" s="16"/>
+      <c r="W79" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
       <c r="Z79" s="19"/>
-      <c r="AA79" s="16"/>
+      <c r="AA79" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="AB79" s="17"/>
       <c r="AC79" s="19"/>
-      <c r="AD79" s="16"/>
+      <c r="AD79" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AE79" s="17"/>
       <c r="AF79" s="17"/>
       <c r="AG79" s="17"/>
@@ -7255,46 +7366,88 @@
       <c r="AN108" s="7"/>
     </row>
     <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="11"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="12"/>
-      <c r="M109" s="12"/>
-      <c r="N109" s="12"/>
-      <c r="O109" s="12"/>
-      <c r="P109" s="12"/>
-      <c r="Q109" s="12"/>
-      <c r="R109" s="12"/>
-      <c r="S109" s="12"/>
-      <c r="T109" s="12"/>
-      <c r="U109" s="12"/>
-      <c r="V109" s="12"/>
-      <c r="W109" s="12"/>
-      <c r="X109" s="12"/>
-      <c r="Y109" s="12"/>
-      <c r="Z109" s="12"/>
-      <c r="AA109" s="12"/>
-      <c r="AB109" s="12"/>
-      <c r="AC109" s="12"/>
-      <c r="AD109" s="12"/>
-      <c r="AE109" s="12"/>
-      <c r="AF109" s="12"/>
-      <c r="AG109" s="12"/>
-      <c r="AH109" s="12"/>
-      <c r="AI109" s="12"/>
-      <c r="AJ109" s="12"/>
-      <c r="AK109" s="12"/>
-      <c r="AL109" s="12"/>
-      <c r="AM109" s="12"/>
-      <c r="AN109" s="13"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="19"/>
+      <c r="L109" s="16"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="19"/>
+      <c r="O109" s="16"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
+      <c r="R109" s="19"/>
+      <c r="S109" s="16"/>
+      <c r="T109" s="19"/>
+      <c r="U109" s="16"/>
+      <c r="V109" s="19"/>
+      <c r="W109" s="16"/>
+      <c r="X109" s="17"/>
+      <c r="Y109" s="17"/>
+      <c r="Z109" s="19"/>
+      <c r="AA109" s="16"/>
+      <c r="AB109" s="17"/>
+      <c r="AC109" s="19"/>
+      <c r="AD109" s="16"/>
+      <c r="AE109" s="17"/>
+      <c r="AF109" s="17"/>
+      <c r="AG109" s="17"/>
+      <c r="AH109" s="17"/>
+      <c r="AI109" s="17"/>
+      <c r="AJ109" s="17"/>
+      <c r="AK109" s="17"/>
+      <c r="AL109" s="17"/>
+      <c r="AM109" s="20"/>
+      <c r="AN109" s="7"/>
+    </row>
+    <row r="110" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="11"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="12"/>
+      <c r="T110" s="12"/>
+      <c r="U110" s="12"/>
+      <c r="V110" s="12"/>
+      <c r="W110" s="12"/>
+      <c r="X110" s="12"/>
+      <c r="Y110" s="12"/>
+      <c r="Z110" s="12"/>
+      <c r="AA110" s="12"/>
+      <c r="AB110" s="12"/>
+      <c r="AC110" s="12"/>
+      <c r="AD110" s="12"/>
+      <c r="AE110" s="12"/>
+      <c r="AF110" s="12"/>
+      <c r="AG110" s="12"/>
+      <c r="AH110" s="12"/>
+      <c r="AI110" s="12"/>
+      <c r="AJ110" s="12"/>
+      <c r="AK110" s="12"/>
+      <c r="AL110" s="12"/>
+      <c r="AM110" s="12"/>
+      <c r="AN110" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/外部設計書_トップページ.xlsx
+++ b/外部設計書_トップページ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A14049-4FCD-4507-8C30-54AEED414EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD513D2C-6A28-4319-A8DA-F5ECE141542C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="792" windowWidth="17280" windowHeight="11568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -311,7 +311,23 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>[6]検索ボタンをクリックすると検索結果一覧ページに遷移する</t>
+    <t>タグとキーワードどちらも入力していない場合、アラートを表示し、検索することができない。</t>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[8]検索ボタンをクリックすると検索結果一覧ページに遷移する</t>
     <rPh sb="3" eb="5">
       <t>ケンサク</t>
     </rPh>
@@ -330,18 +346,28 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>タグとキーワードどちらも入力していない場合、アラートを表示し、検索することができない。</t>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
+    <t>[6][7]解決/未解決ボタンを押す</t>
+    <rPh sb="6" eb="8">
+      <t>カイケツ</t>
     </rPh>
-    <rPh sb="19" eb="21">
-      <t>バアイ</t>
+    <rPh sb="9" eb="12">
+      <t>ミカイケツ</t>
     </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒョウジ</t>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
     </rPh>
-    <rPh sb="31" eb="33">
-      <t>ケンサク</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>解決/未解決のどちらかを必須選択</t>
+    <rPh sb="0" eb="2">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ミカイケツ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ヒッスセンタク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -870,15 +896,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>202407</xdr:colOff>
+      <xdr:colOff>126207</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>154782</xdr:rowOff>
+      <xdr:rowOff>135732</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>83343</xdr:colOff>
+      <xdr:colOff>7143</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -893,8 +919,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1023938" y="1488282"/>
-          <a:ext cx="9465468" cy="5131593"/>
+          <a:off x="869157" y="1469232"/>
+          <a:ext cx="8548686" cy="5131593"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -928,15 +954,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>130969</xdr:colOff>
+      <xdr:colOff>150019</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>11906</xdr:colOff>
+      <xdr:colOff>30956</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -951,8 +977,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="952500" y="6167437"/>
-          <a:ext cx="9465469" cy="428625"/>
+          <a:off x="892969" y="6196012"/>
+          <a:ext cx="8548687" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1264,15 +1290,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>154782</xdr:rowOff>
+      <xdr:colOff>197168</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>202407</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>178594</xdr:rowOff>
+      <xdr:colOff>145257</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>26194</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1287,8 +1313,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4095751" y="4917282"/>
-          <a:ext cx="2952750" cy="404812"/>
+          <a:off x="3664268" y="4574382"/>
+          <a:ext cx="2672239" cy="404812"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2146,15 +2172,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>71435</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>178594</xdr:rowOff>
+      <xdr:colOff>52385</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>92869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>21431</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2169,8 +2195,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5000623" y="5512594"/>
-          <a:ext cx="964408" cy="309562"/>
+          <a:off x="4510085" y="5617369"/>
+          <a:ext cx="1042990" cy="309562"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2199,7 +2225,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>6.</a:t>
+            <a:t>8.</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -2456,6 +2482,201 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>トップページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>185739</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5F82C5-BBAC-44C8-93B9-CDD11CEDCC18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1023938" y="1488282"/>
+          <a:ext cx="400051" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>140492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29CBC87-DDD3-4C3D-9483-A8EBB8FDEAFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095749" y="5093492"/>
+          <a:ext cx="685802" cy="307183"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>解決</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>235266</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D706BC-87D2-4157-B939-169C9802C5B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5188266" y="5105400"/>
+          <a:ext cx="774384" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>7.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>未解決</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2786,15 +3007,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP110"/>
+  <dimension ref="A1:AP112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AB53" sqref="AB53"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -4910,7 +5131,7 @@
       <c r="D51" s="10"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -4955,7 +5176,7 @@
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
@@ -4997,7 +5218,9 @@
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
       <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
+      <c r="F53" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
@@ -5040,18 +5263,20 @@
       <c r="D54" s="10"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
+      <c r="G54" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>
       <c r="U54" s="9"/>
@@ -5089,11 +5314,11 @@
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
       <c r="S55" s="9"/>
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
@@ -5173,11 +5398,11 @@
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
@@ -5215,11 +5440,11 @@
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="9"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
@@ -5834,8 +6059,8 @@
     <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
@@ -5875,351 +6100,351 @@
     </row>
     <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="12"/>
-      <c r="S74" s="12"/>
-      <c r="T74" s="12"/>
-      <c r="U74" s="12"/>
-      <c r="V74" s="12"/>
-      <c r="W74" s="12"/>
-      <c r="X74" s="12"/>
-      <c r="Y74" s="12"/>
-      <c r="Z74" s="12"/>
-      <c r="AA74" s="12"/>
-      <c r="AB74" s="12"/>
-      <c r="AC74" s="12"/>
-      <c r="AD74" s="12"/>
-      <c r="AE74" s="12"/>
-      <c r="AF74" s="12"/>
-      <c r="AG74" s="12"/>
-      <c r="AH74" s="12"/>
-      <c r="AI74" s="12"/>
-      <c r="AJ74" s="12"/>
-      <c r="AK74" s="12"/>
-      <c r="AL74" s="12"/>
-      <c r="AM74" s="13"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="9"/>
+      <c r="Y74" s="9"/>
+      <c r="Z74" s="9"/>
+      <c r="AA74" s="9"/>
+      <c r="AB74" s="9"/>
+      <c r="AC74" s="9"/>
+      <c r="AD74" s="9"/>
+      <c r="AE74" s="9"/>
+      <c r="AF74" s="9"/>
+      <c r="AG74" s="9"/>
+      <c r="AH74" s="9"/>
+      <c r="AI74" s="9"/>
+      <c r="AJ74" s="9"/>
+      <c r="AK74" s="9"/>
+      <c r="AL74" s="9"/>
+      <c r="AM74" s="7"/>
       <c r="AN74" s="7"/>
     </row>
     <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="11"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="12"/>
-      <c r="S75" s="12"/>
-      <c r="T75" s="12"/>
-      <c r="U75" s="12"/>
-      <c r="V75" s="12"/>
-      <c r="W75" s="12"/>
-      <c r="X75" s="12"/>
-      <c r="Y75" s="12"/>
-      <c r="Z75" s="12"/>
-      <c r="AA75" s="12"/>
-      <c r="AB75" s="12"/>
-      <c r="AC75" s="12"/>
-      <c r="AD75" s="12"/>
-      <c r="AE75" s="12"/>
-      <c r="AF75" s="12"/>
-      <c r="AG75" s="12"/>
-      <c r="AH75" s="12"/>
-      <c r="AI75" s="12"/>
-      <c r="AJ75" s="12"/>
-      <c r="AK75" s="12"/>
-      <c r="AL75" s="12"/>
-      <c r="AM75" s="12"/>
-      <c r="AN75" s="13"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="9"/>
+      <c r="Y75" s="9"/>
+      <c r="Z75" s="9"/>
+      <c r="AA75" s="9"/>
+      <c r="AB75" s="9"/>
+      <c r="AC75" s="9"/>
+      <c r="AD75" s="9"/>
+      <c r="AE75" s="9"/>
+      <c r="AF75" s="9"/>
+      <c r="AG75" s="9"/>
+      <c r="AH75" s="9"/>
+      <c r="AI75" s="9"/>
+      <c r="AJ75" s="9"/>
+      <c r="AK75" s="9"/>
+      <c r="AL75" s="9"/>
+      <c r="AM75" s="7"/>
+      <c r="AN75" s="7"/>
     </row>
     <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="3"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
-      <c r="S76" s="4"/>
-      <c r="T76" s="4"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="4"/>
-      <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
-      <c r="Y76" s="4"/>
-      <c r="Z76" s="4"/>
-      <c r="AA76" s="4"/>
-      <c r="AB76" s="4"/>
-      <c r="AC76" s="4"/>
-      <c r="AD76" s="4"/>
-      <c r="AE76" s="4"/>
-      <c r="AF76" s="4"/>
-      <c r="AG76" s="4"/>
-      <c r="AH76" s="4"/>
-      <c r="AI76" s="4"/>
-      <c r="AJ76" s="4"/>
-      <c r="AK76" s="4"/>
-      <c r="AL76" s="4"/>
-      <c r="AM76" s="4"/>
-      <c r="AN76" s="5"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+      <c r="S76" s="12"/>
+      <c r="T76" s="12"/>
+      <c r="U76" s="12"/>
+      <c r="V76" s="12"/>
+      <c r="W76" s="12"/>
+      <c r="X76" s="12"/>
+      <c r="Y76" s="12"/>
+      <c r="Z76" s="12"/>
+      <c r="AA76" s="12"/>
+      <c r="AB76" s="12"/>
+      <c r="AC76" s="12"/>
+      <c r="AD76" s="12"/>
+      <c r="AE76" s="12"/>
+      <c r="AF76" s="12"/>
+      <c r="AG76" s="12"/>
+      <c r="AH76" s="12"/>
+      <c r="AI76" s="12"/>
+      <c r="AJ76" s="12"/>
+      <c r="AK76" s="12"/>
+      <c r="AL76" s="12"/>
+      <c r="AM76" s="13"/>
+      <c r="AN76" s="7"/>
     </row>
     <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="6"/>
-      <c r="B77" s="3" t="s">
+      <c r="A77" s="11"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+      <c r="S77" s="12"/>
+      <c r="T77" s="12"/>
+      <c r="U77" s="12"/>
+      <c r="V77" s="12"/>
+      <c r="W77" s="12"/>
+      <c r="X77" s="12"/>
+      <c r="Y77" s="12"/>
+      <c r="Z77" s="12"/>
+      <c r="AA77" s="12"/>
+      <c r="AB77" s="12"/>
+      <c r="AC77" s="12"/>
+      <c r="AD77" s="12"/>
+      <c r="AE77" s="12"/>
+      <c r="AF77" s="12"/>
+      <c r="AG77" s="12"/>
+      <c r="AH77" s="12"/>
+      <c r="AI77" s="12"/>
+      <c r="AJ77" s="12"/>
+      <c r="AK77" s="12"/>
+      <c r="AL77" s="12"/>
+      <c r="AM77" s="12"/>
+      <c r="AN77" s="13"/>
+    </row>
+    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="3"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4"/>
+      <c r="AA78" s="4"/>
+      <c r="AB78" s="4"/>
+      <c r="AC78" s="4"/>
+      <c r="AD78" s="4"/>
+      <c r="AE78" s="4"/>
+      <c r="AF78" s="4"/>
+      <c r="AG78" s="4"/>
+      <c r="AH78" s="4"/>
+      <c r="AI78" s="4"/>
+      <c r="AJ78" s="4"/>
+      <c r="AK78" s="4"/>
+      <c r="AL78" s="4"/>
+      <c r="AM78" s="4"/>
+      <c r="AN78" s="5"/>
+    </row>
+    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="6"/>
+      <c r="B79" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-      <c r="S77" s="4"/>
-      <c r="T77" s="4"/>
-      <c r="U77" s="4"/>
-      <c r="V77" s="4"/>
-      <c r="W77" s="4"/>
-      <c r="X77" s="4"/>
-      <c r="Y77" s="4"/>
-      <c r="Z77" s="4"/>
-      <c r="AA77" s="4"/>
-      <c r="AB77" s="4"/>
-      <c r="AC77" s="4"/>
-      <c r="AD77" s="4"/>
-      <c r="AE77" s="4"/>
-      <c r="AF77" s="4"/>
-      <c r="AG77" s="4"/>
-      <c r="AH77" s="4"/>
-      <c r="AI77" s="4"/>
-      <c r="AJ77" s="4"/>
-      <c r="AK77" s="4"/>
-      <c r="AL77" s="4"/>
-      <c r="AM77" s="5"/>
-      <c r="AN77" s="7"/>
-    </row>
-    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
-      <c r="R78" s="8"/>
-      <c r="S78" s="8"/>
-      <c r="T78" s="8"/>
-      <c r="U78" s="8"/>
-      <c r="V78" s="8"/>
-      <c r="W78" s="8"/>
-      <c r="X78" s="8"/>
-      <c r="Y78" s="8"/>
-      <c r="Z78" s="8"/>
-      <c r="AA78" s="8"/>
-      <c r="AB78" s="8"/>
-      <c r="AC78" s="8"/>
-      <c r="AD78" s="8"/>
-      <c r="AE78" s="8"/>
-      <c r="AF78" s="8"/>
-      <c r="AG78" s="8"/>
-      <c r="AH78" s="8"/>
-      <c r="AI78" s="8"/>
-      <c r="AJ78" s="8"/>
-      <c r="AK78" s="8"/>
-      <c r="AL78" s="8"/>
-      <c r="AM78" s="7"/>
-      <c r="AN78" s="7"/>
-    </row>
-    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="6"/>
-      <c r="B79" s="14" t="s">
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4"/>
+      <c r="AA79" s="4"/>
+      <c r="AB79" s="4"/>
+      <c r="AC79" s="4"/>
+      <c r="AD79" s="4"/>
+      <c r="AE79" s="4"/>
+      <c r="AF79" s="4"/>
+      <c r="AG79" s="4"/>
+      <c r="AH79" s="4"/>
+      <c r="AI79" s="4"/>
+      <c r="AJ79" s="4"/>
+      <c r="AK79" s="4"/>
+      <c r="AL79" s="4"/>
+      <c r="AM79" s="5"/>
+      <c r="AN79" s="7"/>
+    </row>
+    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="8"/>
+      <c r="T80" s="8"/>
+      <c r="U80" s="8"/>
+      <c r="V80" s="8"/>
+      <c r="W80" s="8"/>
+      <c r="X80" s="8"/>
+      <c r="Y80" s="8"/>
+      <c r="Z80" s="8"/>
+      <c r="AA80" s="8"/>
+      <c r="AB80" s="8"/>
+      <c r="AC80" s="8"/>
+      <c r="AD80" s="8"/>
+      <c r="AE80" s="8"/>
+      <c r="AF80" s="8"/>
+      <c r="AG80" s="8"/>
+      <c r="AH80" s="8"/>
+      <c r="AI80" s="8"/>
+      <c r="AJ80" s="8"/>
+      <c r="AK80" s="8"/>
+      <c r="AL80" s="8"/>
+      <c r="AM80" s="7"/>
+      <c r="AN80" s="7"/>
+    </row>
+    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="6"/>
+      <c r="B81" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="16" t="s">
+      <c r="C81" s="15"/>
+      <c r="D81" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" s="18"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M79" s="17"/>
-      <c r="N79" s="19"/>
-      <c r="O79" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
-      <c r="R79" s="19"/>
-      <c r="S79" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="T79" s="19"/>
-      <c r="U79" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="V79" s="19"/>
-      <c r="W79" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="X79" s="17"/>
-      <c r="Y79" s="17"/>
-      <c r="Z79" s="19"/>
-      <c r="AA79" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB79" s="17"/>
-      <c r="AC79" s="19"/>
-      <c r="AD79" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE79" s="17"/>
-      <c r="AF79" s="17"/>
-      <c r="AG79" s="17"/>
-      <c r="AH79" s="17"/>
-      <c r="AI79" s="17"/>
-      <c r="AJ79" s="17"/>
-      <c r="AK79" s="17"/>
-      <c r="AL79" s="17"/>
-      <c r="AM79" s="20"/>
-      <c r="AN79" s="7"/>
-    </row>
-    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="6"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="19"/>
-      <c r="O80" s="16"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
-      <c r="R80" s="19"/>
-      <c r="S80" s="16"/>
-      <c r="T80" s="19"/>
-      <c r="U80" s="16"/>
-      <c r="V80" s="19"/>
-      <c r="W80" s="16"/>
-      <c r="X80" s="17"/>
-      <c r="Y80" s="17"/>
-      <c r="Z80" s="19"/>
-      <c r="AA80" s="16"/>
-      <c r="AB80" s="17"/>
-      <c r="AC80" s="19"/>
-      <c r="AD80" s="16"/>
-      <c r="AE80" s="17"/>
-      <c r="AF80" s="17"/>
-      <c r="AG80" s="17"/>
-      <c r="AH80" s="17"/>
-      <c r="AI80" s="17"/>
-      <c r="AJ80" s="17"/>
-      <c r="AK80" s="17"/>
-      <c r="AL80" s="17"/>
-      <c r="AM80" s="20"/>
-      <c r="AN80" s="7"/>
-    </row>
-    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="6"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="16"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
-      <c r="H81" s="16"/>
+      <c r="H81" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
-      <c r="L81" s="16"/>
+      <c r="L81" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
-      <c r="O81" s="16"/>
+      <c r="O81" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="19"/>
-      <c r="S81" s="16"/>
+      <c r="S81" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="T81" s="19"/>
-      <c r="U81" s="16"/>
+      <c r="U81" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="V81" s="19"/>
-      <c r="W81" s="16"/>
+      <c r="W81" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
-      <c r="AA81" s="16"/>
+      <c r="AA81" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
-      <c r="AD81" s="16"/>
+      <c r="AD81" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AE81" s="17"/>
       <c r="AF81" s="17"/>
       <c r="AG81" s="17"/>
@@ -7408,46 +7633,130 @@
       <c r="AN109" s="7"/>
     </row>
     <row r="110" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="11"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="12"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="12"/>
-      <c r="L110" s="12"/>
-      <c r="M110" s="12"/>
-      <c r="N110" s="12"/>
-      <c r="O110" s="12"/>
-      <c r="P110" s="12"/>
-      <c r="Q110" s="12"/>
-      <c r="R110" s="12"/>
-      <c r="S110" s="12"/>
-      <c r="T110" s="12"/>
-      <c r="U110" s="12"/>
-      <c r="V110" s="12"/>
-      <c r="W110" s="12"/>
-      <c r="X110" s="12"/>
-      <c r="Y110" s="12"/>
-      <c r="Z110" s="12"/>
-      <c r="AA110" s="12"/>
-      <c r="AB110" s="12"/>
-      <c r="AC110" s="12"/>
-      <c r="AD110" s="12"/>
-      <c r="AE110" s="12"/>
-      <c r="AF110" s="12"/>
-      <c r="AG110" s="12"/>
-      <c r="AH110" s="12"/>
-      <c r="AI110" s="12"/>
-      <c r="AJ110" s="12"/>
-      <c r="AK110" s="12"/>
-      <c r="AL110" s="12"/>
-      <c r="AM110" s="12"/>
-      <c r="AN110" s="13"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="19"/>
+      <c r="L110" s="16"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="19"/>
+      <c r="O110" s="16"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
+      <c r="R110" s="19"/>
+      <c r="S110" s="16"/>
+      <c r="T110" s="19"/>
+      <c r="U110" s="16"/>
+      <c r="V110" s="19"/>
+      <c r="W110" s="16"/>
+      <c r="X110" s="17"/>
+      <c r="Y110" s="17"/>
+      <c r="Z110" s="19"/>
+      <c r="AA110" s="16"/>
+      <c r="AB110" s="17"/>
+      <c r="AC110" s="19"/>
+      <c r="AD110" s="16"/>
+      <c r="AE110" s="17"/>
+      <c r="AF110" s="17"/>
+      <c r="AG110" s="17"/>
+      <c r="AH110" s="17"/>
+      <c r="AI110" s="17"/>
+      <c r="AJ110" s="17"/>
+      <c r="AK110" s="17"/>
+      <c r="AL110" s="17"/>
+      <c r="AM110" s="20"/>
+      <c r="AN110" s="7"/>
+    </row>
+    <row r="111" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="6"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="19"/>
+      <c r="L111" s="16"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="19"/>
+      <c r="O111" s="16"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
+      <c r="R111" s="19"/>
+      <c r="S111" s="16"/>
+      <c r="T111" s="19"/>
+      <c r="U111" s="16"/>
+      <c r="V111" s="19"/>
+      <c r="W111" s="16"/>
+      <c r="X111" s="17"/>
+      <c r="Y111" s="17"/>
+      <c r="Z111" s="19"/>
+      <c r="AA111" s="16"/>
+      <c r="AB111" s="17"/>
+      <c r="AC111" s="19"/>
+      <c r="AD111" s="16"/>
+      <c r="AE111" s="17"/>
+      <c r="AF111" s="17"/>
+      <c r="AG111" s="17"/>
+      <c r="AH111" s="17"/>
+      <c r="AI111" s="17"/>
+      <c r="AJ111" s="17"/>
+      <c r="AK111" s="17"/>
+      <c r="AL111" s="17"/>
+      <c r="AM111" s="20"/>
+      <c r="AN111" s="7"/>
+    </row>
+    <row r="112" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="11"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12"/>
+      <c r="O112" s="12"/>
+      <c r="P112" s="12"/>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="12"/>
+      <c r="S112" s="12"/>
+      <c r="T112" s="12"/>
+      <c r="U112" s="12"/>
+      <c r="V112" s="12"/>
+      <c r="W112" s="12"/>
+      <c r="X112" s="12"/>
+      <c r="Y112" s="12"/>
+      <c r="Z112" s="12"/>
+      <c r="AA112" s="12"/>
+      <c r="AB112" s="12"/>
+      <c r="AC112" s="12"/>
+      <c r="AD112" s="12"/>
+      <c r="AE112" s="12"/>
+      <c r="AF112" s="12"/>
+      <c r="AG112" s="12"/>
+      <c r="AH112" s="12"/>
+      <c r="AI112" s="12"/>
+      <c r="AJ112" s="12"/>
+      <c r="AK112" s="12"/>
+      <c r="AL112" s="12"/>
+      <c r="AM112" s="12"/>
+      <c r="AN112" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/外部設計書_トップページ.xlsx
+++ b/外部設計書_トップページ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD513D2C-6A28-4319-A8DA-F5ECE141542C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650E7B78-12E4-44FB-B8A5-1F975C044B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="792" windowWidth="17280" windowHeight="11568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -209,49 +209,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>検索項目が未入力の場合どのような処理をするかどうか</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ナビゲーションメニューの項目について</t>
-    <rPh sb="12" eb="14">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>持ち帰り</t>
-    <rPh sb="0" eb="1">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>[4]タグをクリックして選択する。</t>
-    <rPh sb="12" eb="14">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>タグは選択しなくてもよい。また、いくつでも選択可能。</t>
     <rPh sb="3" eb="5">
       <t>センタク</t>
@@ -359,7 +316,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>解決/未解決のどちらかを必須選択</t>
+    <t>解決/未解決のどちらかを必須選択(ラジオボタン)</t>
     <rPh sb="0" eb="2">
       <t>カイケツ</t>
     </rPh>
@@ -368,6 +325,13 @@
     </rPh>
     <rPh sb="12" eb="16">
       <t>ヒッスセンタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[4]タグをクリックして選択する(チェックボックス)。</t>
+    <rPh sb="12" eb="14">
+      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1147,13 +1111,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>95249</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>35719</xdr:rowOff>
     </xdr:to>
@@ -1170,8 +1134,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4476750" y="1381125"/>
-          <a:ext cx="2286000" cy="559594"/>
+          <a:off x="4057649" y="1381125"/>
+          <a:ext cx="2238375" cy="559594"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2490,66 +2454,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>33338</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>154782</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>185739</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="正方形/長方形 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5F82C5-BBAC-44C8-93B9-CDD11CEDCC18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1023938" y="1488282"/>
-          <a:ext cx="400051" cy="202406"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
       <xdr:row>26</xdr:row>
@@ -3007,10 +2911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP112"/>
+  <dimension ref="A1:AN112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3669,7 +3573,7 @@
       <c r="AM16" s="7"/>
       <c r="AN16" s="7"/>
     </row>
-    <row r="17" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="10"/>
@@ -3711,7 +3615,7 @@
       <c r="AM17" s="7"/>
       <c r="AN17" s="7"/>
     </row>
-    <row r="18" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="10"/>
@@ -3753,7 +3657,7 @@
       <c r="AM18" s="7"/>
       <c r="AN18" s="7"/>
     </row>
-    <row r="19" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="10"/>
@@ -3795,7 +3699,7 @@
       <c r="AM19" s="7"/>
       <c r="AN19" s="7"/>
     </row>
-    <row r="20" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="10"/>
@@ -3837,7 +3741,7 @@
       <c r="AM20" s="7"/>
       <c r="AN20" s="7"/>
     </row>
-    <row r="21" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="10"/>
@@ -3879,7 +3783,7 @@
       <c r="AM21" s="7"/>
       <c r="AN21" s="7"/>
     </row>
-    <row r="22" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="10"/>
@@ -3921,7 +3825,7 @@
       <c r="AM22" s="7"/>
       <c r="AN22" s="7"/>
     </row>
-    <row r="23" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="10"/>
@@ -3963,7 +3867,7 @@
       <c r="AM23" s="7"/>
       <c r="AN23" s="7"/>
     </row>
-    <row r="24" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="10"/>
@@ -4005,7 +3909,7 @@
       <c r="AM24" s="7"/>
       <c r="AN24" s="7"/>
     </row>
-    <row r="25" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="10"/>
@@ -4047,7 +3951,7 @@
       <c r="AM25" s="7"/>
       <c r="AN25" s="7"/>
     </row>
-    <row r="26" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="10"/>
@@ -4089,7 +3993,7 @@
       <c r="AM26" s="7"/>
       <c r="AN26" s="7"/>
     </row>
-    <row r="27" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="10"/>
@@ -4131,7 +4035,7 @@
       <c r="AM27" s="7"/>
       <c r="AN27" s="7"/>
     </row>
-    <row r="28" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="10"/>
@@ -4172,11 +4076,8 @@
       <c r="AL28" s="9"/>
       <c r="AM28" s="7"/>
       <c r="AN28" s="7"/>
-      <c r="AP28" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="10"/>
@@ -4217,11 +4118,8 @@
       <c r="AL29" s="9"/>
       <c r="AM29" s="7"/>
       <c r="AN29" s="7"/>
-      <c r="AP29" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="10"/>
@@ -4262,11 +4160,8 @@
       <c r="AL30" s="9"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
-      <c r="AP30" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="10"/>
@@ -4308,7 +4203,7 @@
       <c r="AM31" s="7"/>
       <c r="AN31" s="7"/>
     </row>
-    <row r="32" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="10"/>
@@ -4867,7 +4762,7 @@
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
@@ -4912,7 +4807,7 @@
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -4956,7 +4851,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
@@ -4999,7 +4894,7 @@
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
@@ -5044,7 +4939,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
@@ -5088,7 +4983,7 @@
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -5131,7 +5026,7 @@
       <c r="D51" s="10"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -5176,7 +5071,7 @@
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
@@ -5219,7 +5114,7 @@
       <c r="D53" s="10"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
@@ -5264,7 +5159,7 @@
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
